--- a/data/georgia_census/imereti/sachxere/education_graduates.xlsx
+++ b/data/georgia_census/imereti/sachxere/education_graduates.xlsx
@@ -1815,13 +1815,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58F8BFE3-30DC-4030-8A93-E9075D80F419}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EE94477-E13D-43F6-97B1-080EBD9D16CB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6169482-0E02-4D24-9F1D-8BCE077586EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B446A9D5-31EE-4418-A55C-741B394976C9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4E1E60A-8292-4DB4-A2B6-296A14AA008C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1997C6F1-2F57-439E-9823-077CF05E038A}"/>
 </file>